--- a/public/reports/1817 - Фондација ДЕЛИЈЕ/2026/01/prepaid/complete_report_Fondacija_DELIJE_prepaid_01_2026.xlsx
+++ b/public/reports/1817 - Фондација ДЕЛИЈЕ/2026/01/prepaid/complete_report_Fondacija_DELIJE_prepaid_01_2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ДЕЛОВОДНИ БРОЈ:</t>
   </si>
@@ -46,7 +46,7 @@
     <t>/01</t>
   </si>
   <si>
-    <t>Уговор бр 341943/1-2025 од 30.07.2025</t>
+    <t>Уговор бр 255031/1-2020 од 24.08.2020</t>
   </si>
   <si>
     <t>Прималац (Добављач):</t>
@@ -61,7 +61,7 @@
     <t>Рачун примаоца:</t>
   </si>
   <si>
-    <t>Банка: AIK BANKA A.D. BEOGRAD  Рачун: 105-3206-14</t>
+    <t>Банка:  AIK BANKA A.D. BEOGRAD  Рачун: 105-3206-14</t>
   </si>
   <si>
     <t>ПИБ 108202229</t>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Сврха уплате</t>
-  </si>
-  <si>
-    <t>Хуманитарна акција прикупљања средстава за обезбеђивање трајне помоћи српском народу и православним светињама на КИМ</t>
   </si>
   <si>
     <t>Напомена:</t>
@@ -865,7 +862,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>9</v>
@@ -1072,9 +1069,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -1132,12 +1127,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="10"/>
@@ -1152,7 +1147,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -1165,12 +1160,12 @@
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="1"/>
@@ -1178,12 +1173,12 @@
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="10"/>
@@ -1226,12 +1221,12 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="G46" s="51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -1241,7 +1236,7 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="G47" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -1253,7 +1248,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
